--- a/INABAE Correcciones.xlsx
+++ b/INABAE Correcciones.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
   <si>
     <t>CHEQUEO</t>
   </si>
@@ -993,8 +993,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,19 +1008,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1033,37 +1025,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,13 +1034,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,6 +1062,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1115,10 +1115,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,7 +1131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,13 +1178,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,7 +1214,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,7 +1286,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,61 +1310,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,31 +1334,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,18 +1353,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1444,47 +1444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1527,6 +1486,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1535,16 +1533,18 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1562,130 +1562,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2111,8 +2111,8 @@
   <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75" outlineLevelCol="3"/>
@@ -2422,53 +2422,63 @@
       <c r="A27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="22"/>
+      <c r="D27" s="16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="31"/>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="22"/>
+      <c r="D28" s="16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="31"/>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="22"/>
+      <c r="D29" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="31"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="22"/>
+      <c r="D30" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="31"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="22"/>
+      <c r="D31" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="32" ht="31.5" spans="1:4">
       <c r="A32" s="29" t="s">

--- a/INABAE Correcciones.xlsx
+++ b/INABAE Correcciones.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9201259E-2BA2-4946-A358-5EFC5D9DE34C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Inventarios" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="84">
   <si>
     <t>CHEQUEO</t>
   </si>
@@ -46,7 +40,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Cuando elimino a un usuario, el msj de alerta es </t>
@@ -56,7 +50,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Usuario bloqueado correctamente, </t>
@@ -65,7 +59,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">debería ser </t>
@@ -75,7 +69,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Datos eliminados correctamente</t>
@@ -90,7 +84,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;h4&gt;  &lt;i class='icon fa fa-times-circle'&gt;&lt;/i&gt; Error!&lt;/h4&gt;</t>
@@ -100,7 +94,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Asegúrese que el archivo que sube es correcto</t>
@@ -121,7 +115,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;strong&gt;&lt;i class='fa fa-check-circle'&gt;&lt;/i&gt; Error!&lt;/strong&gt; </t>
@@ -131,7 +125,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Asegúrese de que el archivo que se sube es correcto</t>
@@ -146,7 +140,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;strong&gt;&lt;i class='fa fa-check-circle'&gt;&lt;/i&gt; Error!&lt;/strong&gt; </t>
@@ -156,7 +150,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Asegúrese que la imagen no sea mayor a 1 MB</t>
@@ -171,7 +165,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;strong&gt;&lt;i class='fa fa-check-circle'&gt;&lt;/i&gt; Error!&lt;/strong&gt; </t>
@@ -181,7 +175,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Asegúrese que el tipo de archivo subido sea *.JPG, *.JPEG, *.PNG</t>
@@ -199,7 +193,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-ban'&gt;&lt;/i&gt; Error!&lt;/h4&gt; </t>
@@ -209,7 +203,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">El serial ya existe </t>
@@ -219,12 +213,15 @@
     <t>¿Donde muestra este mensaje? ¿Cual será la variable única? Varios equipos de la lista pueden no tener serial</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Revisado. Corregido</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; Éxito!&lt;/h4&gt;</t>
@@ -234,7 +231,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Equipo chequeado</t>
@@ -249,7 +246,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; </t>
@@ -259,7 +256,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Datos exportados correctamente </t>
@@ -269,7 +266,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/h4&gt;</t>
@@ -284,7 +281,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                &lt;label class="col-sm-2 control-label"&gt;</t>
@@ -294,7 +291,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Descripción</t>
@@ -304,7 +301,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/label&gt;</t>
@@ -314,15 +311,12 @@
     <t>Al modificar un equipo, debería desplegar la lista de descripción manteniendo la descripción agregada al registrar el equipo. Esto, debido a que es posible modificar la descripción y para ello es necesario la lista preestablecida</t>
   </si>
   <si>
-    <t>Revisado. Corregido</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                &lt;label class="col-sm-2 control-label"&gt;</t>
@@ -332,7 +326,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Color</t>
@@ -342,7 +336,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/label&gt;
@@ -353,7 +347,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Condición</t>
@@ -363,7 +357,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/label&gt;</t>
@@ -373,9 +367,6 @@
     <t>Al modificar un equipo, el sistema requiere que modifique obligatoriamente Color y Condición para guardar. Debería guardar al modificar o no cualquier dato</t>
   </si>
   <si>
-    <t>Revisado. Definir campos obligatorios. Verificar no modifica</t>
-  </si>
-  <si>
     <t>Equipos de transporte, tracción y elevación</t>
   </si>
   <si>
@@ -384,7 +375,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; Éxito!&lt;/h4&gt;</t>
@@ -394,7 +385,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Datos importados correctamente</t>
@@ -412,7 +403,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-ban'&gt;&lt;/i&gt; Error!&lt;/h4&gt; </t>
@@ -422,7 +413,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">La placa ya existe </t>
@@ -437,7 +428,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; </t>
@@ -447,7 +438,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Seleccione el archivo que desea importar </t>
@@ -457,7 +448,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/h4&gt;</t>
@@ -475,7 +466,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-times-circle'&gt;&lt;/i&gt; Error!&lt;/h4&gt; </t>
@@ -485,7 +476,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Asegúrese que el archivo que sube es correcto</t>
@@ -497,7 +488,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                      &lt;td width='100' class='center'&gt;$data[</t>
@@ -507,7 +498,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>anio</t>
@@ -517,7 +508,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]&lt;/td&gt;</t>
@@ -535,7 +526,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; Éxito!&lt;/h4&gt;</t>
@@ -545,7 +536,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Datos registrados correctamente</t>
@@ -575,7 +566,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-ban'&gt;&lt;/i&gt; Error!&lt;/h4&gt; </t>
@@ -585,7 +576,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">El ISBN ya existe </t>
@@ -597,7 +588,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                      &lt;td width='100' class='center'&gt;$data[</t>
@@ -607,7 +598,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>unidad</t>
@@ -617,7 +608,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]&lt;/td&gt;</t>
@@ -627,12 +618,15 @@
     <t>Posibilidad de habilitar variable 'unidad'. En proses aparece como comentario</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
+    <t>Agregar nuevo campo a la bdd</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                      &lt;td width='100' class='center'&gt;$data[</t>
@@ -642,7 +636,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>editorial</t>
@@ -652,7 +646,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]&lt;/td&gt;</t>
@@ -667,7 +661,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                      &lt;td width='100' class='center'&gt;$data[</t>
@@ -677,7 +671,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>tipo</t>
@@ -687,7 +681,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]&lt;/td&gt;</t>
@@ -714,7 +708,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-ban'&gt;&lt;/i&gt; Error!&lt;/h4&gt; </t>
@@ -724,7 +718,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">La ubicación ya existe </t>
@@ -736,7 +730,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                      &lt;td width='100' class='center'&gt;$data[</t>
@@ -746,7 +740,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>bienesN</t>
@@ -756,7 +750,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]&lt;/td&gt;
@@ -767,7 +761,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>unidad</t>
@@ -777,7 +771,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]&lt;/td&gt;                      
@@ -788,7 +782,7 @@
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>pertenece</t>
@@ -798,7 +792,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>]&lt;/td&gt;</t>
@@ -812,13 +806,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">                &lt;label class="col-sm-2 control-label"&gt;</t>
     </r>
     <r>
@@ -826,7 +813,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Condición</t>
@@ -836,7 +823,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>&lt;/label&gt;</t>
@@ -854,7 +841,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; </t>
@@ -864,7 +851,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Seleccione el archivo que desea importar</t>
@@ -874,7 +861,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> &lt;/h4&gt;</t>
@@ -886,7 +873,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; Éxito!&lt;/h4&gt; </t>
@@ -896,7 +883,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>Datos importados correctamente</t>
@@ -943,65 +930,19 @@
   </si>
   <si>
     <t>No hay respaldo de movimientos, pero si está en el código</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                &lt;label class="col-sm-2 control-label"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Descripción</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/label&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Definir buscar repetido placa o serial</t>
-  </si>
-  <si>
-    <t>Definir repetido. O permitir guardar serial vacio</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">              &lt;h4&gt;  &lt;i class='icon fa fa-check-circle'&gt;&lt;/i&gt; Éxito!&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Equipo chequeado</t>
-    </r>
-  </si>
-  <si>
-    <t>Agregar nuevo campo a la bdd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir repetido. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1014,7 +955,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,42 +963,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1066,11 +979,183 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,13 +1170,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,8 +1192,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1188,11 +1465,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,6 +1728,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1225,6 +1750,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1242,93 +1770,125 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1586,903 +2146,909 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.85714285714286" style="3" customWidth="1"/>
     <col min="2" max="2" width="128" style="4" customWidth="1"/>
-    <col min="3" max="3" width="159.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="159.428571428571" style="5" customWidth="1"/>
+    <col min="4" max="4" width="71.4190476190476" style="4" customWidth="1"/>
     <col min="5" max="16384" width="21" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="20" customFormat="1" ht="26.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="29" customFormat="1" ht="26.25" spans="1:4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="24" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:4">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="27"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="27"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="21"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="31"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>86</v>
+      <c r="D11" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="33"/>
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="31.5" spans="1:4">
+      <c r="A14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+    </row>
+    <row r="15" ht="31.5" spans="1:4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="33"/>
+      <c r="B18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="33"/>
+      <c r="B19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="33"/>
+      <c r="B20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5">
-      <c r="A14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="D20" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="33"/>
+      <c r="B21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="33"/>
+      <c r="B22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="22"/>
+      <c r="B23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" ht="31.5" spans="1:4">
+      <c r="A24" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="B24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="C24" s="36" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5">
-      <c r="A15" s="27"/>
-      <c r="B15" s="16" t="s">
+      <c r="D24" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" ht="31.5" spans="1:4">
+      <c r="A25" s="30"/>
+      <c r="B25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C25" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="28" t="s">
+      <c r="D25" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="29"/>
-      <c r="B18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="15" t="s">
+      <c r="B27" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="29"/>
-      <c r="B22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" ht="31.5">
-      <c r="A24" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.5">
-      <c r="A25" s="27"/>
-      <c r="B25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="21"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="29"/>
-      <c r="B28" s="16" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>86</v>
+      <c r="D28" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="15" t="s">
-        <v>20</v>
+      <c r="A29" s="33"/>
+      <c r="B29" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="C29" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="38" t="s">
-        <v>21</v>
+      <c r="D29" s="37" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="15" t="s">
-        <v>22</v>
+      <c r="A30" s="33"/>
+      <c r="B30" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="13" t="s">
-        <v>21</v>
+      <c r="D30" s="16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="15" t="s">
-        <v>39</v>
+      <c r="A31" s="33"/>
+      <c r="B31" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="C31" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="31.5">
-      <c r="A32" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>84</v>
+      <c r="D31" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" ht="31.5" spans="1:4">
+      <c r="A32" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="31.5">
-      <c r="A33" s="27"/>
-      <c r="B33" s="16" t="s">
+      <c r="D32" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="31.5" spans="1:4">
+      <c r="A33" s="30"/>
+      <c r="B33" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>29</v>
+      <c r="D33" s="32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="37" t="s">
+      <c r="A34" s="30"/>
+      <c r="B34" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="D34" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="33"/>
+      <c r="B37" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="33"/>
+      <c r="B38" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" ht="31.5" spans="1:4">
+      <c r="A39" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="24" t="s">
+      <c r="D39" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" ht="31.5" spans="1:4">
+      <c r="A40" s="30"/>
+      <c r="B40" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="28" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B42" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C42" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="29"/>
-      <c r="B37" s="15" t="s">
+      <c r="D42" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="33"/>
+      <c r="B43" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="22"/>
+      <c r="B44" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="31.5" spans="1:4">
+      <c r="A45" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="17" t="s">
+    </row>
+    <row r="46" ht="31.5" spans="1:4">
+      <c r="A46" s="30"/>
+      <c r="B46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="40"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="27"/>
+      <c r="B49" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="27"/>
+      <c r="B50" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D50" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="27"/>
+      <c r="B51" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="27"/>
+      <c r="B52" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="27"/>
+      <c r="B53" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="27"/>
+      <c r="B54" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="27"/>
+      <c r="B55" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="24"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="28"/>
+      <c r="B56" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="24"/>
+    </row>
+    <row r="57" ht="31.5" spans="1:4">
+      <c r="A57" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" ht="31.5" spans="1:4">
+      <c r="A58" s="30"/>
+      <c r="B58" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="33"/>
+      <c r="B61" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="29"/>
-      <c r="B38" s="15" t="s">
+      <c r="C61" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="40" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="33"/>
+      <c r="B62" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D62" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" ht="31.5" spans="1:4">
+      <c r="A63" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" ht="31.5" spans="1:4">
+      <c r="A64" s="30"/>
+      <c r="B64" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="33"/>
+      <c r="B67" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="33"/>
+      <c r="B68" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="31.5">
-      <c r="A39" s="27" t="s">
+      <c r="C68" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="33"/>
+      <c r="B69" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="C69" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="33"/>
+      <c r="B70" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="33"/>
+      <c r="B71" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" ht="47.25" spans="1:4">
+      <c r="A72" s="22"/>
+      <c r="B72" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" ht="31.5" spans="1:4">
+      <c r="A73" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="B73" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5">
-      <c r="A40" s="27"/>
-      <c r="B40" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="21"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="29"/>
-      <c r="B43" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="31.5">
-      <c r="A45" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="31.5">
-      <c r="A46" s="27"/>
-      <c r="B46" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="39"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="32"/>
-      <c r="B49" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="32"/>
-      <c r="B50" s="15" t="s">
+      <c r="C73" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="32"/>
-      <c r="B51" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="32"/>
-      <c r="B52" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="32"/>
-      <c r="B53" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="32"/>
-      <c r="B54" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="32"/>
-      <c r="B55" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="18"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="33"/>
-      <c r="B56" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="18"/>
-    </row>
-    <row r="57" spans="1:4" ht="31.5">
-      <c r="A57" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="31.5">
-      <c r="A58" s="27"/>
-      <c r="B58" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="21"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="29"/>
-      <c r="B61" s="15" t="s">
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="30"/>
+      <c r="B74" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="32" t="s">
         <v>20</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="29"/>
-      <c r="B62" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="31.5">
-      <c r="A63" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="31.5">
-      <c r="A64" s="27"/>
-      <c r="B64" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="21"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="29"/>
-      <c r="B67" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="29"/>
-      <c r="B68" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="29"/>
-      <c r="B69" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="29"/>
-      <c r="B70" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="29"/>
-      <c r="B71" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="47.25">
-      <c r="A72" s="30"/>
-      <c r="B72" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="31.5">
-      <c r="A73" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="27"/>
-      <c r="B74" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A4:A5"/>
@@ -2499,216 +3065,211 @@
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A56"/>
     <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A73:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="146.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" width="146.142857142857" style="4" customWidth="1"/>
     <col min="3" max="3" width="37" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.7142857142857" style="4" customWidth="1"/>
     <col min="5" max="16384" width="21" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" ht="47.25">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" ht="47.25" spans="1:4">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="47.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="47.25" spans="1:4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>26</v>
+      <c r="C5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18"/>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1">
-      <c r="A7" s="24" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:4">
+      <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" ht="47.25">
-      <c r="A8" s="28" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" ht="47.25" spans="1:4">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="47.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="15" t="s">
+      <c r="C8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="47.25" spans="1:4">
+      <c r="A9" s="22"/>
+      <c r="B9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>26</v>
+      <c r="C9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1">
-      <c r="A11" s="24" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="24"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:4">
+      <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="41"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="47.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="15" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="24"/>
+    </row>
+    <row r="13" ht="47.25" spans="1:4">
+      <c r="A13" s="27"/>
+      <c r="B13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="47.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="15" t="s">
+      <c r="C13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="47.25" spans="1:4">
+      <c r="A14" s="28"/>
+      <c r="B14" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1">
-      <c r="A15" s="24" t="s">
+      <c r="C14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="1:4">
+      <c r="A15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" ht="47.25">
-      <c r="A16" s="31" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" ht="47.25" spans="1:4">
+      <c r="A16" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="47.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="15" t="s">
+      <c r="C16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="47.25" spans="1:4">
+      <c r="A17" s="28"/>
+      <c r="B17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>26</v>
+      <c r="C17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A7:C7"/>
@@ -2717,103 +3278,106 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.7142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.2857142857143" style="5" customWidth="1"/>
     <col min="4" max="16384" width="21" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:4">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="31.5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="17"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="31.5" spans="1:4">
+      <c r="A6" s="15"/>
+      <c r="B6" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1">
-      <c r="A7" s="24" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:4">
+      <c r="A7" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:4">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="15" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:4">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2824,67 +3388,69 @@
     <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.7142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.2857142857143" style="5" customWidth="1"/>
     <col min="4" max="16384" width="21" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2893,67 +3459,69 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.7142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="56.7142857142857" style="4" customWidth="1"/>
+    <col min="3" max="3" width="25.2857142857143" style="5" customWidth="1"/>
     <col min="4" max="16384" width="21" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="1" customFormat="1" ht="26.25" spans="1:4">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="24" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="13" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:4">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:4">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2962,6 +3530,7 @@
     <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/INABAE Correcciones.xlsx
+++ b/INABAE Correcciones.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D755F2A-EE93-4230-AFF5-3B181D85BCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inventarios" sheetId="1" r:id="rId1"/>
@@ -927,7 +926,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1024,13 +1023,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,41 +1159,68 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1202,58 +1228,52 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1530,27 +1550,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="128" style="4" customWidth="1"/>
-    <col min="3" max="3" width="159.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="127" style="5" customWidth="1"/>
     <col min="4" max="4" width="71.42578125" style="4" customWidth="1"/>
     <col min="5" max="16384" width="21" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="21" customFormat="1" ht="26.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" s="20" customFormat="1" ht="26.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1565,875 +1585,864 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:4" s="35" customFormat="1">
+      <c r="A4" s="48" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="33"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="34" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="2" customFormat="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:4" s="38" customFormat="1">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="35"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:4" s="38" customFormat="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="34" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="35"/>
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:4" s="38" customFormat="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="36" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="21"/>
+    </row>
+    <row r="11" spans="1:4" s="38" customFormat="1">
+      <c r="A11" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="15" t="s">
+      <c r="D11" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="38" customFormat="1">
+      <c r="A12" s="40"/>
+      <c r="B12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:4" s="38" customFormat="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.5">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.5">
-      <c r="A15" s="35"/>
-      <c r="B15" s="16" t="s">
+      <c r="D14" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A15" s="37"/>
+      <c r="B15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="36" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4" s="38" customFormat="1">
+      <c r="A17" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="37"/>
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:4" s="38" customFormat="1">
+      <c r="A18" s="40"/>
+      <c r="B18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="37"/>
-      <c r="B19" s="15" t="s">
+      <c r="D18" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="38" customFormat="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="37"/>
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:4" s="38" customFormat="1">
+      <c r="A20" s="40"/>
+      <c r="B20" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="37"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:4" s="38" customFormat="1">
+      <c r="A21" s="40"/>
+      <c r="B21" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="1:4" s="38" customFormat="1">
+      <c r="A22" s="40"/>
+      <c r="B22" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="38"/>
-      <c r="B23" s="16" t="s">
+    <row r="23" spans="1:4" s="38" customFormat="1">
+      <c r="A23" s="44"/>
+      <c r="B23" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" ht="31.5">
-      <c r="A24" s="35" t="s">
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A24" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31.5">
-      <c r="A25" s="35"/>
-      <c r="B25" s="16" t="s">
+      <c r="D24" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A25" s="37"/>
+      <c r="B25" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="36" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" s="38" customFormat="1">
+      <c r="A27" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="37"/>
-      <c r="B28" s="16" t="s">
+      <c r="D27" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="38" customFormat="1">
+      <c r="A28" s="40"/>
+      <c r="B28" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="37"/>
-      <c r="B29" s="15" t="s">
+    <row r="29" spans="1:4" s="38" customFormat="1">
+      <c r="A29" s="40"/>
+      <c r="B29" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="37"/>
-      <c r="B30" s="15" t="s">
+    <row r="30" spans="1:4" s="38" customFormat="1">
+      <c r="A30" s="40"/>
+      <c r="B30" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="37"/>
-      <c r="B31" s="15" t="s">
+    <row r="31" spans="1:4" s="38" customFormat="1">
+      <c r="A31" s="40"/>
+      <c r="B31" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5">
-      <c r="A32" s="35" t="s">
+    <row r="32" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A32" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="31.5">
-      <c r="A33" s="35"/>
-      <c r="B33" s="16" t="s">
+      <c r="D32" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A33" s="37"/>
+      <c r="B33" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="35"/>
-      <c r="B34" s="28" t="s">
+      <c r="D33" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="38" customFormat="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="22"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="36" t="s">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" spans="1:4" s="38" customFormat="1">
+      <c r="A36" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="37"/>
-      <c r="B37" s="15" t="s">
+    <row r="37" spans="1:4" s="38" customFormat="1">
+      <c r="A37" s="40"/>
+      <c r="B37" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="37"/>
-      <c r="B38" s="15" t="s">
+    <row r="38" spans="1:4" s="38" customFormat="1">
+      <c r="A38" s="40"/>
+      <c r="B38" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="31.5">
-      <c r="A39" s="35" t="s">
+    <row r="39" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A39" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5">
-      <c r="A40" s="35"/>
-      <c r="B40" s="16" t="s">
+      <c r="D39" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A40" s="37"/>
+      <c r="B40" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C40" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="36" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="21"/>
+    </row>
+    <row r="42" spans="1:4" s="38" customFormat="1">
+      <c r="A42" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="37"/>
-      <c r="B43" s="15" t="s">
+    <row r="43" spans="1:4" s="38" customFormat="1">
+      <c r="A43" s="40"/>
+      <c r="B43" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="38"/>
-      <c r="B44" s="15" t="s">
+    <row r="44" spans="1:4" s="38" customFormat="1">
+      <c r="A44" s="44"/>
+      <c r="B44" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="31.5">
-      <c r="A45" s="35" t="s">
+    <row r="45" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A45" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="31.5">
-      <c r="A46" s="35"/>
-      <c r="B46" s="16" t="s">
+      <c r="D45" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A46" s="37"/>
+      <c r="B46" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="30"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="39" t="s">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4" s="38" customFormat="1">
+      <c r="A48" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="40"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="40"/>
-      <c r="B50" s="15" t="s">
+      <c r="D49" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="38" customFormat="1">
+      <c r="A50" s="28"/>
+      <c r="B50" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="40"/>
-      <c r="B51" s="15" t="s">
+    <row r="51" spans="1:4" s="38" customFormat="1">
+      <c r="A51" s="28"/>
+      <c r="B51" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="40"/>
-      <c r="B52" s="15" t="s">
+    <row r="52" spans="1:4" s="38" customFormat="1">
+      <c r="A52" s="28"/>
+      <c r="B52" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="40"/>
-      <c r="B53" s="15" t="s">
+      <c r="D52" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="38" customFormat="1">
+      <c r="A53" s="28"/>
+      <c r="B53" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="40"/>
-      <c r="B54" s="16" t="s">
+      <c r="A54" s="28"/>
+      <c r="B54" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="40"/>
-      <c r="B55" s="16" t="s">
+    <row r="55" spans="1:4" s="38" customFormat="1">
+      <c r="A55" s="28"/>
+      <c r="B55" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="41"/>
-      <c r="B56" s="16" t="s">
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="1:4" s="38" customFormat="1">
+      <c r="A56" s="29"/>
+      <c r="B56" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C56" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D56" s="19"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4" ht="31.5">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="31.5">
-      <c r="A58" s="35"/>
-      <c r="B58" s="16" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C58" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="32" t="s">
+      <c r="A59" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="22"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="36" t="s">
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="21"/>
+    </row>
+    <row r="60" spans="1:4" s="38" customFormat="1">
+      <c r="A60" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C60" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="37"/>
-      <c r="B61" s="15" t="s">
+    <row r="61" spans="1:4" s="38" customFormat="1">
+      <c r="A61" s="40"/>
+      <c r="B61" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="37"/>
-      <c r="B62" s="15" t="s">
+    <row r="62" spans="1:4" s="38" customFormat="1">
+      <c r="A62" s="40"/>
+      <c r="B62" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="31.5">
-      <c r="A63" s="35" t="s">
+    <row r="63" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A63" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C63" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="31.5">
-      <c r="A64" s="35"/>
-      <c r="B64" s="16" t="s">
+      <c r="D63" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A64" s="37"/>
+      <c r="B64" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B65" s="32"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="22"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="36" t="s">
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="21"/>
+    </row>
+    <row r="66" spans="1:4" s="38" customFormat="1">
+      <c r="A66" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="37"/>
-      <c r="B67" s="16" t="s">
+    <row r="67" spans="1:4" s="38" customFormat="1">
+      <c r="A67" s="40"/>
+      <c r="B67" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="37"/>
-      <c r="B68" s="15" t="s">
+    <row r="68" spans="1:4" s="38" customFormat="1">
+      <c r="A68" s="40"/>
+      <c r="B68" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="37"/>
-      <c r="B69" s="15" t="s">
+    <row r="69" spans="1:4" s="38" customFormat="1">
+      <c r="A69" s="40"/>
+      <c r="B69" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="37"/>
-      <c r="B70" s="15" t="s">
+    <row r="70" spans="1:4" s="38" customFormat="1">
+      <c r="A70" s="40"/>
+      <c r="B70" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="37"/>
-      <c r="B71" s="15" t="s">
+      <c r="D70" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="38" customFormat="1">
+      <c r="A71" s="40"/>
+      <c r="B71" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="47.25">
-      <c r="A72" s="38"/>
-      <c r="B72" s="16" t="s">
+    <row r="72" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A72" s="44"/>
+      <c r="B72" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="D72" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="31.5">
-      <c r="A73" s="35" t="s">
+    <row r="73" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A73" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D73" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="35"/>
-      <c r="B74" s="16" t="s">
+      <c r="D73" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="38" customFormat="1" ht="31.5">
+      <c r="A74" s="37"/>
+      <c r="B74" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="34" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A48:A56"/>
@@ -2443,11 +2452,22 @@
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A65:C65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2455,14 +2475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="146.140625" style="4" customWidth="1"/>
@@ -2472,10 +2492,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2490,158 +2510,158 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="47.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="47.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="15" t="s">
+      <c r="D4" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" ht="47.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="47.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="15" t="s">
+      <c r="D8" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" s="2" customFormat="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="47.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="15" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="34" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="47.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="2" customFormat="1">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="47.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A16" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="47.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="15" t="s">
+      <c r="D16" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="38" customFormat="1" ht="47.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="34" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2663,14 +2683,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
@@ -2679,10 +2699,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2697,62 +2717,62 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:4" s="35" customFormat="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="49"/>
+    </row>
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="31.5">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" s="35" customFormat="1" ht="31.5">
+      <c r="A6" s="50"/>
+      <c r="B6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="49"/>
     </row>
     <row r="7" spans="1:4" s="2" customFormat="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="13" t="s">
+    <row r="8" spans="1:4" s="35" customFormat="1">
+      <c r="A8" s="48"/>
+      <c r="B8" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="15" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="49"/>
+    </row>
+    <row r="9" spans="1:4" s="35" customFormat="1">
+      <c r="A9" s="48"/>
+      <c r="B9" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2768,14 +2788,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="B4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
@@ -2784,10 +2804,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2802,28 +2822,28 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:4" s="35" customFormat="1">
+      <c r="A4" s="48"/>
+      <c r="B4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="15" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="49"/>
+    </row>
+    <row r="5" spans="1:4" s="35" customFormat="1">
+      <c r="A5" s="48"/>
+      <c r="B5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2837,14 +2857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="21" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="21" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="56.7109375" style="4" customWidth="1"/>
@@ -2853,10 +2873,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2871,27 +2891,27 @@
       <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="13" t="s">
+    <row r="4" spans="1:4" s="35" customFormat="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:4" s="2" customFormat="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="9"/>
     </row>
   </sheetData>
